--- a/运动数据.xlsx
+++ b/运动数据.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiangli/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiangli/Projects/Health/p-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>3月14日</t>
     <rPh sb="1" eb="2">
@@ -82,30 +82,6 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>ri</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>心率</t>
-    <rPh sb="0" eb="1">
-      <t>xin'lv</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有氧时间</t>
-    <rPh sb="0" eb="1">
-      <t>you'yang'shi'jian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有氧距离</t>
-    <rPh sb="0" eb="1">
-      <t>you'yang</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ju'li</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -126,6 +102,114 @@
     <t>引体向上</t>
     <rPh sb="0" eb="1">
       <t>yin'ti'xiang'hsang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仰卧起坐</t>
+    <rPh sb="0" eb="1">
+      <t>yang'wo'qi'zuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快走（慢跑）</t>
+    <rPh sb="0" eb="1">
+      <t>kuai'zo</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>man'pao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快走（慢跑）时间（分钟）</t>
+    <rPh sb="0" eb="1">
+      <t>kuai'zou</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>man'pao</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>fen'zhong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快走（慢跑）平均心率</t>
+    <rPh sb="0" eb="1">
+      <t>kuai'zou</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>man'pao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ping'jun</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xin'lv</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>划船</t>
+    <rPh sb="0" eb="1">
+      <t>hua'chuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月20日</t>
+    <rPh sb="1" eb="2">
+      <t>yue</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ri</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>划船速度（秒）每500米，多少秒</t>
+    <rPh sb="0" eb="1">
+      <t>hua'chuan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>su'du</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>miao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>mei</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>mi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>duo'shao</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>miao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月22日</t>
+    <rPh sb="1" eb="2">
+      <t>yue</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ri</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月23日</t>
+    <rPh sb="1" eb="2">
+      <t>yue</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ri</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -450,109 +534,202 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>2.31</v>
+      </c>
+      <c r="C2">
+        <v>22</v>
+      </c>
+      <c r="D2">
+        <v>139</v>
+      </c>
+      <c r="E2">
+        <v>1000</v>
+      </c>
+      <c r="F2">
+        <v>130</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="I2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>1.51</v>
+      </c>
+      <c r="C3">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>129</v>
+      </c>
+      <c r="E3">
+        <v>500</v>
+      </c>
+      <c r="F3">
+        <v>130</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>8</v>
+      </c>
+      <c r="I3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>2.39</v>
+      </c>
+      <c r="C4">
+        <v>24</v>
+      </c>
+      <c r="D4">
+        <v>133</v>
+      </c>
+      <c r="E4">
+        <v>500</v>
+      </c>
+      <c r="F4">
+        <v>133</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>3.32</v>
+      </c>
+      <c r="C5">
+        <v>31</v>
+      </c>
+      <c r="D5">
+        <v>147</v>
+      </c>
+      <c r="G5">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>3.32</v>
-      </c>
-      <c r="C2">
-        <v>31</v>
-      </c>
-      <c r="D2">
-        <v>147</v>
-      </c>
-      <c r="F2">
-        <v>10</v>
-      </c>
-      <c r="G2">
+      <c r="H5">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B6">
         <v>2.69</v>
       </c>
-      <c r="C3">
+      <c r="C6">
         <v>25</v>
       </c>
-      <c r="D3">
+      <c r="D6">
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B7">
         <v>2.59</v>
       </c>
-      <c r="C4">
+      <c r="C7">
         <v>22</v>
       </c>
-      <c r="D4">
+      <c r="D7">
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B8">
         <v>1.9</v>
       </c>
-      <c r="C5">
+      <c r="C8">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B9">
         <v>2.6</v>
       </c>
-      <c r="C6">
+      <c r="C9">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B10">
         <v>1.95</v>
       </c>
-      <c r="C7">
+      <c r="C10">
         <v>19</v>
       </c>
     </row>
